--- a/Memory Org.xlsx
+++ b/Memory Org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Development\ZOSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FC9289-4280-45C0-B218-05640F0A8E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D459B3A-3869-462B-86FA-48F2C20E0548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5E7ED7F-8F6D-4AE8-A755-0E71EACBD5E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>BBR</t>
   </si>
@@ -108,10 +108,7 @@
     <t>Kernel</t>
   </si>
   <si>
-    <t>Transition</t>
-  </si>
-  <si>
-    <t>F0</t>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -160,12 +157,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -183,6 +206,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -500,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF35ABA-31FA-42EC-B3C9-B4B08687D4D9}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,32 +536,26 @@
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -546,11 +565,8 @@
       <c r="C3" s="4">
         <v>80</v>
       </c>
-      <c r="D3" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -560,154 +576,136 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>